--- a/2.Podrazdelenie/Логин и пароль.xlsx
+++ b/2.Podrazdelenie/Логин и пароль.xlsx
@@ -1,7 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Автотесты на RPA\2.Podrazdelenie\"/>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Введите URL</t>
   </si>
@@ -29,20 +30,14 @@
     <t>Введите логин</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
     <t>Введите пароль</t>
-  </si>
-  <si>
-    <t>Master_0895</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,7 +71,13 @@
     </fill>
   </fills>
   <borders count="6">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
@@ -90,6 +91,7 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -104,8 +106,10 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -115,6 +119,7 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -129,8 +134,10 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -140,6 +147,7 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
@@ -160,11 +168,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -173,10 +189,10 @@
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
-        <a:sysClr val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -422,23 +438,26 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" tabSelected="1" zoomScale="175" zoomScaleNormal="145" zoomScaleSheetLayoutView="175" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="175" zoomScaleNormal="145" zoomScaleSheetLayoutView="175" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85156" customWidth="1"/>
-    <col min="2" max="2" width="48.14063" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,26 +465,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" thickBot="1" ht="15.75">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="B3" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="/view/DepartmentRegistry" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1" location="/view/DepartmentRegistry"/>
   </hyperlinks>
-  <pageSetup r:id="rId2" paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>